--- a/scene_cat_exp_2023.2.2_english/input_files/90_scenecat_categorization_bedrooms_1.xlsx
+++ b/scene_cat_exp_2023.2.2_english/input_files/90_scenecat_categorization_bedrooms_1.xlsx
@@ -488,7 +488,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -497,35 +497,35 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>stimuli/img_bntrh.png</t>
+          <t>stimuli/img_lgxzn.png</t>
         </is>
       </c>
       <c r="M2">
-        <v>76.07894736842105</v>
+        <v>73.11363636363636</v>
       </c>
       <c r="N2">
-        <v>53.36842105263158</v>
+        <v>49.97727272727273</v>
       </c>
       <c r="O2">
-        <v>64.72368421052632</v>
+        <v>61.54545454545455</v>
       </c>
       <c r="P2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -543,7 +543,7 @@
         <v>6</v>
       </c>
       <c r="V2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -565,7 +565,7 @@
         <v>2</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>83</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -589,38 +589,38 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>stimuli/img_ri0yx.png</t>
+          <t>stimuli/img_bklr1.png</t>
         </is>
       </c>
       <c r="M3">
-        <v>88.96969696969697</v>
+        <v>86.54761904761905</v>
       </c>
       <c r="N3">
-        <v>77.15151515151516</v>
+        <v>67.73809523809524</v>
       </c>
       <c r="O3">
-        <v>83.06060606060606</v>
+        <v>77.14285714285714</v>
       </c>
       <c r="P3">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="Q3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="U3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="V3">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -642,7 +642,7 @@
         <v>3</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>84</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -666,20 +666,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>stimuli/img_anjr0.png</t>
+          <t>stimuli/img_g7870.png</t>
         </is>
       </c>
       <c r="M4">
-        <v>67.88888888888889</v>
+        <v>68.70967741935483</v>
       </c>
       <c r="N4">
-        <v>45.80555555555556</v>
+        <v>44.2258064516129</v>
       </c>
       <c r="O4">
-        <v>56.84722222222222</v>
+        <v>56.46774193548387</v>
       </c>
       <c r="P4">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -719,7 +719,7 @@
         <v>4</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -743,20 +743,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>stimuli/img_g7870.png</t>
+          <t>stimuli/img_4ufga.png</t>
         </is>
       </c>
       <c r="M5">
-        <v>68.70967741935483</v>
+        <v>67.79411764705883</v>
       </c>
       <c r="N5">
-        <v>44.2258064516129</v>
+        <v>41.5</v>
       </c>
       <c r="O5">
-        <v>56.46774193548387</v>
+        <v>54.64705882352941</v>
       </c>
       <c r="P5">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -796,7 +796,7 @@
         <v>5</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -820,29 +820,29 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>stimuli/img_kost0.png</t>
+          <t>stimuli/img_xy930.png</t>
         </is>
       </c>
       <c r="M6">
-        <v>63.09090909090909</v>
+        <v>70.5952380952381</v>
       </c>
       <c r="N6">
-        <v>42.77272727272727</v>
+        <v>49.47619047619047</v>
       </c>
       <c r="O6">
-        <v>52.93181818181819</v>
+        <v>60.03571428571429</v>
       </c>
       <c r="P6">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T6">
         <v>5</v>
@@ -873,7 +873,7 @@
         <v>6</v>
       </c>
       <c r="F7">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -882,35 +882,35 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>stimuli/img_badai.png</t>
+          <t>stimuli/img_d0k76.png</t>
         </is>
       </c>
       <c r="M7">
-        <v>63.97435897435897</v>
+        <v>67.09090909090909</v>
       </c>
       <c r="N7">
-        <v>43.38461538461539</v>
+        <v>46.3030303030303</v>
       </c>
       <c r="O7">
-        <v>53.67948717948718</v>
+        <v>56.6969696969697</v>
       </c>
       <c r="P7">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -950,7 +950,7 @@
         <v>7</v>
       </c>
       <c r="F8">
-        <v>7</v>
+        <v>88</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -974,38 +974,38 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>stimuli/img_7os7q.png</t>
+          <t>stimuli/img_6ddrx.png</t>
         </is>
       </c>
       <c r="M8">
-        <v>59.7027027027027</v>
+        <v>82.2</v>
       </c>
       <c r="N8">
-        <v>34.94594594594594</v>
+        <v>63.68571428571428</v>
       </c>
       <c r="O8">
-        <v>47.32432432432432</v>
+        <v>72.94285714285715</v>
       </c>
       <c r="P8">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="R8">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="S8">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="T8">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="U8">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="V8">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -1027,7 +1027,7 @@
         <v>8</v>
       </c>
       <c r="F9">
-        <v>8</v>
+        <v>89</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -1036,7 +1036,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1051,20 +1051,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>stimuli/img_q1ynd.png</t>
+          <t>stimuli/img_swq34.png</t>
         </is>
       </c>
       <c r="M9">
-        <v>70.05714285714286</v>
+        <v>64.11363636363636</v>
       </c>
       <c r="N9">
-        <v>47.31428571428572</v>
+        <v>43.04545454545455</v>
       </c>
       <c r="O9">
-        <v>58.68571428571429</v>
+        <v>53.57954545454545</v>
       </c>
       <c r="P9">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -1104,7 +1104,7 @@
         <v>9</v>
       </c>
       <c r="F10">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -1113,53 +1113,53 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>stimuli/img_jge7p.png</t>
+          <t>stimuli/img_q1ynd.png</t>
         </is>
       </c>
       <c r="M10">
-        <v>90.42424242424242</v>
+        <v>70.05714285714286</v>
       </c>
       <c r="N10">
-        <v>75.63636363636364</v>
+        <v>47.31428571428572</v>
       </c>
       <c r="O10">
-        <v>83.03030303030303</v>
+        <v>58.68571428571429</v>
       </c>
       <c r="P10">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q10">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="R10">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="S10">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T10">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="U10">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="V10">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -1181,7 +1181,7 @@
         <v>10</v>
       </c>
       <c r="F11">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1190,53 +1190,53 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>stimuli/img_c2pbs.png</t>
+          <t>stimuli/img_73pyk.png</t>
         </is>
       </c>
       <c r="M11">
-        <v>21.95238095238095</v>
+        <v>69.27659574468085</v>
       </c>
       <c r="N11">
-        <v>14.47619047619048</v>
+        <v>47.27659574468085</v>
       </c>
       <c r="O11">
-        <v>18.21428571428572</v>
+        <v>58.27659574468085</v>
       </c>
       <c r="P11">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="Q11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V11">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -1258,7 +1258,7 @@
         <v>11</v>
       </c>
       <c r="F12">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1282,38 +1282,38 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>stimuli/img_68wfw.png</t>
+          <t>stimuli/img_hc49v.png</t>
         </is>
       </c>
       <c r="M12">
-        <v>68.87878787878788</v>
+        <v>70.95121951219512</v>
       </c>
       <c r="N12">
-        <v>48.96969696969697</v>
+        <v>53.31707317073171</v>
       </c>
       <c r="O12">
-        <v>58.92424242424242</v>
+        <v>62.13414634146342</v>
       </c>
       <c r="P12">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="Q12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V12">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -1335,7 +1335,7 @@
         <v>12</v>
       </c>
       <c r="F13">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1344,53 +1344,53 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>stimuli/img_65cdi.png</t>
+          <t>stimuli/img_b971s.png</t>
         </is>
       </c>
       <c r="M13">
-        <v>46.92307692307692</v>
+        <v>70.5</v>
       </c>
       <c r="N13">
-        <v>27</v>
+        <v>47.61111111111111</v>
       </c>
       <c r="O13">
-        <v>36.96153846153846</v>
+        <v>59.05555555555556</v>
       </c>
       <c r="P13">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Q13">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R13">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S13">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T13">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U13">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V13">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -1412,7 +1412,7 @@
         <v>13</v>
       </c>
       <c r="F14">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1436,38 +1436,38 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>stimuli/img_fbihy.png</t>
+          <t>stimuli/img_ri0yx.png</t>
         </is>
       </c>
       <c r="M14">
-        <v>44.39024390243902</v>
+        <v>88.96969696969697</v>
       </c>
       <c r="N14">
-        <v>26.90243902439024</v>
+        <v>77.15151515151516</v>
       </c>
       <c r="O14">
-        <v>35.64634146341464</v>
+        <v>83.06060606060606</v>
       </c>
       <c r="P14">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="Q14">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="R14">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="S14">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="T14">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="U14">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="V14">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -1489,7 +1489,7 @@
         <v>14</v>
       </c>
       <c r="F15">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1498,53 +1498,53 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>stimuli/img_hc49v.png</t>
+          <t>stimuli/img_9z99v.png</t>
         </is>
       </c>
       <c r="M15">
-        <v>70.95121951219512</v>
+        <v>81.15625</v>
       </c>
       <c r="N15">
-        <v>53.31707317073171</v>
+        <v>64.78125</v>
       </c>
       <c r="O15">
-        <v>62.13414634146342</v>
+        <v>72.96875</v>
       </c>
       <c r="P15">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R15">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S15">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T15">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U15">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="V15">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -1566,7 +1566,7 @@
         <v>15</v>
       </c>
       <c r="F16">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1575,53 +1575,53 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>stimuli/img_o37la.png</t>
+          <t>stimuli/img_oau79.png</t>
         </is>
       </c>
       <c r="M16">
-        <v>65.24324324324324</v>
+        <v>70.86486486486487</v>
       </c>
       <c r="N16">
-        <v>42.78378378378378</v>
+        <v>49</v>
       </c>
       <c r="O16">
-        <v>54.01351351351352</v>
+        <v>59.93243243243244</v>
       </c>
       <c r="P16">
         <v>37</v>
       </c>
       <c r="Q16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V16">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -1643,7 +1643,7 @@
         <v>16</v>
       </c>
       <c r="F17">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1667,38 +1667,38 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>stimuli/img_i7vab.png</t>
+          <t>stimuli/img_qbdgm.png</t>
         </is>
       </c>
       <c r="M17">
-        <v>86.40000000000001</v>
+        <v>76.88095238095238</v>
       </c>
       <c r="N17">
-        <v>67.8</v>
+        <v>60.40476190476191</v>
       </c>
       <c r="O17">
-        <v>77.09999999999999</v>
+        <v>68.64285714285714</v>
       </c>
       <c r="P17">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="Q17">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="R17">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="S17">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="T17">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="U17">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="V17">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -1720,7 +1720,7 @@
         <v>17</v>
       </c>
       <c r="F18">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1729,35 +1729,35 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>stimuli/img_koooi.png</t>
+          <t>stimuli/img_sltwe.png</t>
         </is>
       </c>
       <c r="M18">
-        <v>63.95454545454545</v>
+        <v>72.02500000000001</v>
       </c>
       <c r="N18">
-        <v>44.56818181818182</v>
+        <v>46.875</v>
       </c>
       <c r="O18">
-        <v>54.26136363636364</v>
+        <v>59.45</v>
       </c>
       <c r="P18">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="Q18">
         <v>5</v>
@@ -1797,7 +1797,7 @@
         <v>18</v>
       </c>
       <c r="F19">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1821,38 +1821,38 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>stimuli/img_xy930.png</t>
+          <t>stimuli/img_pt3d7.png</t>
         </is>
       </c>
       <c r="M19">
-        <v>70.5952380952381</v>
+        <v>65.08571428571429</v>
       </c>
       <c r="N19">
-        <v>49.47619047619047</v>
+        <v>44.65714285714286</v>
       </c>
       <c r="O19">
-        <v>60.03571428571429</v>
+        <v>54.87142857142857</v>
       </c>
       <c r="P19">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="Q19">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R19">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S19">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V19">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -1874,7 +1874,7 @@
         <v>19</v>
       </c>
       <c r="F20">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1951,7 +1951,7 @@
         <v>20</v>
       </c>
       <c r="F21">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1960,53 +1960,53 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>stimuli/img_kn0we.png</t>
+          <t>stimuli/img_68wfw.png</t>
         </is>
       </c>
       <c r="M21">
-        <v>80.15909090909091</v>
+        <v>68.87878787878788</v>
       </c>
       <c r="N21">
-        <v>56.68181818181818</v>
+        <v>48.96969696969697</v>
       </c>
       <c r="O21">
-        <v>68.42045454545455</v>
+        <v>58.92424242424242</v>
       </c>
       <c r="P21">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="Q21">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R21">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="S21">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T21">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="U21">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="V21">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -2028,7 +2028,7 @@
         <v>21</v>
       </c>
       <c r="F22">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -2037,53 +2037,53 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>stimuli/img_oau79.png</t>
+          <t>stimuli/img_kn0we.png</t>
         </is>
       </c>
       <c r="M22">
-        <v>70.86486486486487</v>
+        <v>80.15909090909091</v>
       </c>
       <c r="N22">
-        <v>49</v>
+        <v>56.68181818181818</v>
       </c>
       <c r="O22">
-        <v>59.93243243243244</v>
+        <v>68.42045454545455</v>
       </c>
       <c r="P22">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="Q22">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R22">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S22">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T22">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="U22">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="V22">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
@@ -2105,7 +2105,7 @@
         <v>22</v>
       </c>
       <c r="F23">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -2129,20 +2129,20 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>stimuli/img_swq34.png</t>
+          <t>stimuli/img_wz6x5.png</t>
         </is>
       </c>
       <c r="M23">
-        <v>64.11363636363636</v>
+        <v>68.3695652173913</v>
       </c>
       <c r="N23">
-        <v>43.04545454545455</v>
+        <v>48.47826086956522</v>
       </c>
       <c r="O23">
-        <v>53.57954545454545</v>
+        <v>58.42391304347826</v>
       </c>
       <c r="P23">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q23">
         <v>5</v>
@@ -2182,7 +2182,7 @@
         <v>23</v>
       </c>
       <c r="F24">
-        <v>23</v>
+        <v>104</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -2206,38 +2206,38 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>stimuli/img_sfh4b.png</t>
+          <t>stimuli/img_7os7q.png</t>
         </is>
       </c>
       <c r="M24">
-        <v>69.06521739130434</v>
+        <v>59.7027027027027</v>
       </c>
       <c r="N24">
-        <v>49.54347826086956</v>
+        <v>34.94594594594594</v>
       </c>
       <c r="O24">
-        <v>59.30434782608695</v>
+        <v>47.32432432432432</v>
       </c>
       <c r="P24">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="Q24">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R24">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S24">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T24">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U24">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V24">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
@@ -2259,7 +2259,7 @@
         <v>24</v>
       </c>
       <c r="F25">
-        <v>24</v>
+        <v>105</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -2268,53 +2268,53 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>stimuli/img_73pyk.png</t>
+          <t>stimuli/img_jge7p.png</t>
         </is>
       </c>
       <c r="M25">
-        <v>69.27659574468085</v>
+        <v>90.42424242424242</v>
       </c>
       <c r="N25">
-        <v>47.27659574468085</v>
+        <v>75.63636363636364</v>
       </c>
       <c r="O25">
-        <v>58.27659574468085</v>
+        <v>83.03030303030303</v>
       </c>
       <c r="P25">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="Q25">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R25">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S25">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T25">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="U25">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="V25">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -2336,7 +2336,7 @@
         <v>25</v>
       </c>
       <c r="F26">
-        <v>25</v>
+        <v>106</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -2345,35 +2345,35 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>stimuli/img_d0k76.png</t>
+          <t>stimuli/img_o37la.png</t>
         </is>
       </c>
       <c r="M26">
-        <v>67.09090909090909</v>
+        <v>65.24324324324324</v>
       </c>
       <c r="N26">
-        <v>46.3030303030303</v>
+        <v>42.78378378378378</v>
       </c>
       <c r="O26">
-        <v>56.6969696969697</v>
+        <v>54.01351351351352</v>
       </c>
       <c r="P26">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -2413,7 +2413,7 @@
         <v>26</v>
       </c>
       <c r="F27">
-        <v>26</v>
+        <v>107</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -2422,53 +2422,53 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>stimuli/img_lgxzn.png</t>
+          <t>stimuli/img_65cdi.png</t>
         </is>
       </c>
       <c r="M27">
-        <v>73.11363636363636</v>
+        <v>46.92307692307692</v>
       </c>
       <c r="N27">
-        <v>49.97727272727273</v>
+        <v>27</v>
       </c>
       <c r="O27">
-        <v>61.54545454545455</v>
+        <v>36.96153846153846</v>
       </c>
       <c r="P27">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="Q27">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R27">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S27">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="T27">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="U27">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="V27">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -2490,7 +2490,7 @@
         <v>27</v>
       </c>
       <c r="F28">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -2499,7 +2499,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2514,38 +2514,38 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>stimuli/img_4ufga.png</t>
+          <t>stimuli/img_kost0.png</t>
         </is>
       </c>
       <c r="M28">
-        <v>67.79411764705883</v>
+        <v>63.09090909090909</v>
       </c>
       <c r="N28">
-        <v>41.5</v>
+        <v>42.77272727272727</v>
       </c>
       <c r="O28">
-        <v>54.64705882352941</v>
+        <v>52.93181818181819</v>
       </c>
       <c r="P28">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="Q28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V28">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29">
@@ -2567,7 +2567,7 @@
         <v>28</v>
       </c>
       <c r="F29">
-        <v>28</v>
+        <v>109</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -2576,53 +2576,53 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>stimuli/img_wz6x5.png</t>
+          <t>stimuli/img_fbihy.png</t>
         </is>
       </c>
       <c r="M29">
-        <v>68.3695652173913</v>
+        <v>44.39024390243902</v>
       </c>
       <c r="N29">
-        <v>48.47826086956522</v>
+        <v>26.90243902439024</v>
       </c>
       <c r="O29">
-        <v>58.42391304347826</v>
+        <v>35.64634146341464</v>
       </c>
       <c r="P29">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="Q29">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R29">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S29">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T29">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U29">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V29">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
@@ -2644,7 +2644,7 @@
         <v>29</v>
       </c>
       <c r="F30">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -2668,38 +2668,38 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>stimuli/img_5mw7y.png</t>
+          <t>stimuli/img_koooi.png</t>
         </is>
       </c>
       <c r="M30">
-        <v>72.65909090909091</v>
+        <v>63.95454545454545</v>
       </c>
       <c r="N30">
-        <v>50.86363636363637</v>
+        <v>44.56818181818182</v>
       </c>
       <c r="O30">
-        <v>61.76136363636364</v>
+        <v>54.26136363636364</v>
       </c>
       <c r="P30">
         <v>44</v>
       </c>
       <c r="Q30">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R30">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S30">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T30">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U30">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V30">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31">
@@ -2721,7 +2721,7 @@
         <v>30</v>
       </c>
       <c r="F31">
-        <v>30</v>
+        <v>111</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -2730,53 +2730,53 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>stimuli/img_b971s.png</t>
+          <t>stimuli/img_l1h36.png</t>
         </is>
       </c>
       <c r="M31">
-        <v>70.5</v>
+        <v>26.64285714285714</v>
       </c>
       <c r="N31">
-        <v>47.61111111111111</v>
+        <v>9.142857142857142</v>
       </c>
       <c r="O31">
-        <v>59.05555555555556</v>
+        <v>17.89285714285714</v>
       </c>
       <c r="P31">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="Q31">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R31">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S31">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T31">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U31">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V31">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -2798,7 +2798,7 @@
         <v>31</v>
       </c>
       <c r="F32">
-        <v>31</v>
+        <v>112</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -2807,53 +2807,53 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>stimuli/img_bklr1.png</t>
+          <t>stimuli/img_anjr0.png</t>
         </is>
       </c>
       <c r="M32">
-        <v>86.54761904761905</v>
+        <v>67.88888888888889</v>
       </c>
       <c r="N32">
-        <v>67.73809523809524</v>
+        <v>45.80555555555556</v>
       </c>
       <c r="O32">
-        <v>77.14285714285714</v>
+        <v>56.84722222222222</v>
       </c>
       <c r="P32">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="Q32">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="R32">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="S32">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="T32">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="U32">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="V32">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33">
@@ -2875,7 +2875,7 @@
         <v>32</v>
       </c>
       <c r="F33">
-        <v>32</v>
+        <v>113</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         <v>33</v>
       </c>
       <c r="F34">
-        <v>33</v>
+        <v>114</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>34</v>
       </c>
       <c r="F35">
-        <v>34</v>
+        <v>115</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -3053,20 +3053,20 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>stimuli/img_sltwe.png</t>
+          <t>stimuli/img_sfh4b.png</t>
         </is>
       </c>
       <c r="M35">
-        <v>72.02500000000001</v>
+        <v>69.06521739130434</v>
       </c>
       <c r="N35">
-        <v>46.875</v>
+        <v>49.54347826086956</v>
       </c>
       <c r="O35">
-        <v>59.45</v>
+        <v>59.30434782608695</v>
       </c>
       <c r="P35">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="Q35">
         <v>5</v>
@@ -3106,7 +3106,7 @@
         <v>35</v>
       </c>
       <c r="F36">
-        <v>35</v>
+        <v>116</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -3130,38 +3130,38 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>stimuli/img_6ddrx.png</t>
+          <t>stimuli/img_i7vab.png</t>
         </is>
       </c>
       <c r="M36">
-        <v>82.2</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="N36">
-        <v>63.68571428571428</v>
+        <v>67.8</v>
       </c>
       <c r="O36">
-        <v>72.94285714285715</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="P36">
         <v>35</v>
       </c>
       <c r="Q36">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R36">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S36">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T36">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U36">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V36">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37">
@@ -3183,7 +3183,7 @@
         <v>36</v>
       </c>
       <c r="F37">
-        <v>36</v>
+        <v>117</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -3207,38 +3207,38 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>stimuli/img_qbdgm.png</t>
+          <t>stimuli/img_badai.png</t>
         </is>
       </c>
       <c r="M37">
-        <v>76.88095238095238</v>
+        <v>63.97435897435897</v>
       </c>
       <c r="N37">
-        <v>60.40476190476191</v>
+        <v>43.38461538461539</v>
       </c>
       <c r="O37">
-        <v>68.64285714285714</v>
+        <v>53.67948717948718</v>
       </c>
       <c r="P37">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Q37">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="R37">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S37">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="T37">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="U37">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="V37">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38">
@@ -3260,7 +3260,7 @@
         <v>37</v>
       </c>
       <c r="F38">
-        <v>37</v>
+        <v>118</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -3269,7 +3269,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3284,38 +3284,38 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>stimuli/img_pt3d7.png</t>
+          <t>stimuli/img_5mw7y.png</t>
         </is>
       </c>
       <c r="M38">
-        <v>65.08571428571429</v>
+        <v>72.65909090909091</v>
       </c>
       <c r="N38">
-        <v>44.65714285714286</v>
+        <v>50.86363636363637</v>
       </c>
       <c r="O38">
-        <v>54.87142857142857</v>
+        <v>61.76136363636364</v>
       </c>
       <c r="P38">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="Q38">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R38">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S38">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T38">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U38">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="V38">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39">
@@ -3337,7 +3337,7 @@
         <v>38</v>
       </c>
       <c r="F39">
-        <v>38</v>
+        <v>119</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -3346,53 +3346,53 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>stimuli/img_l1h36.png</t>
+          <t>stimuli/img_mucwi.png</t>
         </is>
       </c>
       <c r="M39">
-        <v>26.64285714285714</v>
+        <v>71.14814814814815</v>
       </c>
       <c r="N39">
-        <v>9.142857142857142</v>
+        <v>48.55555555555556</v>
       </c>
       <c r="O39">
-        <v>17.89285714285714</v>
+        <v>59.85185185185185</v>
       </c>
       <c r="P39">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="Q39">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R39">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S39">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T39">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U39">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V39">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40">
@@ -3414,7 +3414,7 @@
         <v>39</v>
       </c>
       <c r="F40">
-        <v>39</v>
+        <v>120</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -3423,53 +3423,53 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>stimuli/img_mucwi.png</t>
+          <t>stimuli/img_c2pbs.png</t>
         </is>
       </c>
       <c r="M40">
-        <v>71.14814814814815</v>
+        <v>21.95238095238095</v>
       </c>
       <c r="N40">
-        <v>48.55555555555556</v>
+        <v>14.47619047619048</v>
       </c>
       <c r="O40">
-        <v>59.85185185185185</v>
+        <v>18.21428571428572</v>
       </c>
       <c r="P40">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="Q40">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R40">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S40">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T40">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U40">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V40">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -3491,7 +3491,7 @@
         <v>40</v>
       </c>
       <c r="F41">
-        <v>40</v>
+        <v>121</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -3515,38 +3515,38 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>stimuli/img_9z99v.png</t>
+          <t>stimuli/img_bntrh.png</t>
         </is>
       </c>
       <c r="M41">
-        <v>81.15625</v>
+        <v>76.07894736842105</v>
       </c>
       <c r="N41">
-        <v>64.78125</v>
+        <v>53.36842105263158</v>
       </c>
       <c r="O41">
-        <v>72.96875</v>
+        <v>64.72368421052632</v>
       </c>
       <c r="P41">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="Q41">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="R41">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S41">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="T41">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U41">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="V41">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
